--- a/uploads/templates/template_semester.xlsx
+++ b/uploads/templates/template_semester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maranathaedu-my.sharepoint.com/personal/if2072023_student_it_maranatha_edu/Documents/SEMESTER 5/Proyek Perangkat Lunak/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maranathaedu-my.sharepoint.com/personal/if2072023_student_it_maranatha_edu/Documents/SEMESTER 5/Proyek Perangkat Lunak/TubesPPL/uploads/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104865E91B45CE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB21044D-8948-4B6D-B767-9DF166E41258}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104865E91B45CE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022BB3F5-F3E6-46B9-B008-5F82AB39C829}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID Semester</t>
   </si>
   <si>
     <t>Nama Semester</t>
   </si>
+  <si>
+    <t>Contoh Ganjil 2023</t>
+  </si>
+  <si>
+    <t>Contoh Ganjil 2024</t>
+  </si>
+  <si>
+    <t>Contoh Ganjil 2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +58,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +396,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>